--- a/exemples/cryptoNexoPolygon.xlsx
+++ b/exemples/cryptoNexoPolygon.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc2132d05d31c914a87c6611c10748aeb04b58e8f</t>
+    <t xml:space="preserve">0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -220,56 +220,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="A5:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,44 +557,44 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
         <v>999</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
         <v>999</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
         <v>1198.8</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
         <v>1E-010</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="10" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -597,8 +605,8 @@
       <c r="B4" s="5" t="n">
         <v>1E-010</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
@@ -606,23 +614,45 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoNexoPolygon.xlsx
+++ b/exemples/cryptoNexoPolygon.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:N9999"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="A4:D32"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -500,7 +500,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="18" t="inlineStr">
         <is>
@@ -781,27 +781,78 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" ht="12.75" customHeight="1" s="15">
+      <c r="A16" s="14" t="n">
         <v>0.9431</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>19/11/2025</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>19:01:43</t>
         </is>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="17" ht="12.75" customHeight="1" s="15">
+      <c r="A17" s="14" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>19:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="15">
+      <c r="A18" s="14" t="n">
+        <v>0.9115</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>20:14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8855</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14:01:31</t>
+        </is>
+      </c>
+    </row>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
